--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="43" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -232,13 +232,79 @@
   </si>
   <si>
     <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp</t>
+  </si>
+  <si>
+    <t>LE.2.00.---22.191010</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>TOP-1</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +367,12 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -428,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -610,6 +682,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -655,10 +733,40 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1000,43 +1108,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1081,58 +1189,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1157,23 +1265,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1184,30 +1292,46 @@
         <v>44796</v>
       </c>
       <c r="C6" s="54"/>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="62">
         <v>861881054164034</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="62" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>66</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1238,7 +1362,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1267,7 +1391,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1296,7 +1420,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1325,7 +1449,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1354,7 +1478,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1383,7 +1507,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1414,7 +1538,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1443,7 +1567,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1472,7 +1596,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1501,7 +1625,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1619,7 +1743,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2024,7 +2148,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -2152,7 +2276,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3245,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3278,43 +3402,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3359,58 +3483,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
@@ -3435,57 +3559,73 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="78">
         <v>44796</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="80">
         <v>868183035875561</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76" t="s">
+      <c r="F6" s="79"/>
+      <c r="G6" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="85"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3497,34 +3637,34 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="78">
         <v>44796</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="76" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="80">
         <v>868183033787966</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="85"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3534,34 +3674,34 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="78">
         <v>44796</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="76" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="80">
         <v>868183034796511</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="85"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3571,34 +3711,54 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="78">
         <v>44796</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="76" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="80">
         <v>868183034685300</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
+      <c r="H9" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="85"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3608,34 +3768,52 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="78">
         <v>44796</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="76" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="80">
         <v>868183035902647</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76" t="s">
+      <c r="F10" s="79"/>
+      <c r="G10" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
+      <c r="H10" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="82"/>
+      <c r="K10" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="85"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3645,34 +3823,38 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="78">
         <v>44796</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="76" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="80">
         <v>867857039896761</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76" t="s">
+      <c r="F11" s="79"/>
+      <c r="G11" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="82"/>
+      <c r="K11" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="85"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3682,34 +3864,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="78">
         <v>44796</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="76" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="80">
         <v>868183038484288</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76" t="s">
+      <c r="F12" s="79"/>
+      <c r="G12" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="85"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3721,34 +3921,34 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="78">
         <v>44796</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="76" t="s">
+      <c r="C13" s="78"/>
+      <c r="D13" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="80">
         <v>868183034648217</v>
       </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76" t="s">
+      <c r="F13" s="79"/>
+      <c r="G13" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="85"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3758,34 +3958,34 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="78">
         <v>44796</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="80">
         <v>868183034801857</v>
       </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76" t="s">
+      <c r="F14" s="79"/>
+      <c r="G14" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="85"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3795,34 +3995,34 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="78">
         <v>44796</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="76" t="s">
+      <c r="C15" s="78"/>
+      <c r="D15" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="80">
         <v>867857039908731</v>
       </c>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76" t="s">
+      <c r="F15" s="79"/>
+      <c r="G15" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="85"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3832,34 +4032,34 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="78">
         <v>44796</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="76" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="80">
         <v>867717030431093</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76" t="s">
+      <c r="F16" s="79"/>
+      <c r="G16" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="85"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3869,31 +4069,38 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="78">
         <v>44796</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="77">
+      <c r="C17" s="78"/>
+      <c r="D17" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="80">
         <v>868183034662309</v>
       </c>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76" t="s">
+      <c r="F17" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="83"/>
+      <c r="K17" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="85"/>
       <c r="T17" s="13"/>
       <c r="U17" s="60"/>
       <c r="V17" s="14"/>
@@ -3903,24 +4110,24 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="85"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -3985,7 +4192,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4017,7 +4224,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4049,7 +4256,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4262,7 +4469,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -4454,7 +4661,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4518,7 +4725,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4871,7 +5078,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -5644,43 +5851,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5725,58 +5932,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -5801,23 +6008,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5843,7 +6050,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5874,7 +6081,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5903,7 +6110,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5932,7 +6139,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5961,7 +6168,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5990,7 +6197,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6019,7 +6226,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6050,7 +6257,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6079,7 +6286,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6108,7 +6315,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6137,7 +6344,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanNB.xlsx
@@ -2,34 +2,37 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang8\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102LE-4G" sheetId="43" r:id="rId1"/>
-    <sheet name="TG102LE" sheetId="44" r:id="rId2"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId3"/>
+    <sheet name="TOP-1" sheetId="45" r:id="rId1"/>
+    <sheet name="TG102LE-4G" sheetId="43" r:id="rId2"/>
+    <sheet name="TG102LE" sheetId="44" r:id="rId3"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'TOP-1'!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -299,6 +302,30 @@
   <si>
     <t>LE.1.00.---05.190404</t>
   </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>Bung via connector nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
 </sst>
 </file>
 
@@ -500,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,50 +715,11 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,6 +755,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,10 +1106,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1108,43 +1142,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1189,496 +1223,501 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="64" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="65">
         <v>44796</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="62">
-        <v>861881054164034</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="C6" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="67">
+        <v>868183034662309</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="71" t="s">
+      <c r="R6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="72"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="56"/>
+      <c r="W6" s="63"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="72"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="56"/>
+      <c r="W7" s="63"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="72"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="56"/>
+      <c r="W8" s="63"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="72"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="56"/>
+      <c r="W9" s="63"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="72"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="56"/>
+      <c r="W10" s="63"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="72"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="56"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="71" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="56"/>
+      <c r="W12" s="63"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="72"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="56"/>
+      <c r="W13" s="63"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="72"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="56"/>
+      <c r="W14" s="63"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="72"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="56"/>
+      <c r="W15" s="63"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="72"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="56"/>
+      <c r="W16" s="63"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="72"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="56"/>
+      <c r="U17" s="63"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="56"/>
+      <c r="W17" s="63"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -1707,7 +1746,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="57" t="s">
+      <c r="U19" s="64" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1888,7 +1927,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="57" t="s">
+      <c r="U25" s="64" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -2148,7 +2187,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -2212,7 +2251,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -3367,10 +3406,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3402,43 +3442,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3483,651 +3523,498 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="57" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="59" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="54">
         <v>44796</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="80">
-        <v>868183035875561</v>
-      </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82" t="s">
+      <c r="C6" s="54">
+        <v>44797</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="62">
+        <v>861881054164034</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="83" t="s">
+      <c r="P6" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="85"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="71" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="60"/>
+      <c r="W6" s="56"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="78">
-        <v>44796</v>
-      </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="80">
-        <v>868183033787966</v>
-      </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="72"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="60"/>
+      <c r="W7" s="56"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="78">
-        <v>44796</v>
-      </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="80">
-        <v>868183034796511</v>
-      </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="72"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="60"/>
+      <c r="W8" s="56"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="78">
-        <v>44796</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="80">
-        <v>868183034685300</v>
-      </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" s="85"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="72"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="60"/>
+      <c r="W9" s="56"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="78">
-        <v>44796</v>
-      </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="80">
-        <v>868183035902647</v>
-      </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="85"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="72"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="60"/>
+      <c r="W10" s="56"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="78">
-        <v>44796</v>
-      </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="80">
-        <v>867857039896761</v>
-      </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="82"/>
-      <c r="K11" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="72"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="60"/>
+      <c r="W11" s="56"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="78">
-        <v>44796</v>
-      </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="80">
-        <v>868183038484288</v>
-      </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="88"/>
-      <c r="I12" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" s="85"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="71" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="60"/>
+      <c r="W12" s="56"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="78">
-        <v>44796</v>
-      </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="80">
-        <v>868183034648217</v>
-      </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="72"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="60"/>
+      <c r="W13" s="56"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="78">
-        <v>44796</v>
-      </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="80">
-        <v>868183034801857</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="72"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="60"/>
+      <c r="W14" s="56"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="78">
-        <v>44796</v>
-      </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="80">
-        <v>867857039908731</v>
-      </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="85"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="60"/>
+      <c r="W15" s="56"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="78">
-        <v>44796</v>
-      </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="80">
-        <v>867717030431093</v>
-      </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="85"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="60"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="78">
-        <v>44796</v>
-      </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="80">
-        <v>868183034662309</v>
-      </c>
-      <c r="F17" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="83"/>
-      <c r="K17" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="85"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="60"/>
+      <c r="U17" s="56"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="60"/>
+      <c r="W17" s="56"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="85"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -4156,7 +4043,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="59" t="s">
+      <c r="U19" s="57" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -4192,7 +4079,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4224,7 +4111,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4256,7 +4143,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4337,7 +4224,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="59" t="s">
+      <c r="U25" s="57" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -4469,7 +4356,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -4597,7 +4484,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -4661,7 +4548,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4725,7 +4612,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5078,7 +4965,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -5790,13 +5677,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5808,6 +5688,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5816,6 +5703,2585 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
+      <c r="B5" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="85"/>
+      <c r="K5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="65">
+        <v>44796</v>
+      </c>
+      <c r="C6" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="67">
+        <v>868183035875561</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="72"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="60"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="65">
+        <v>44796</v>
+      </c>
+      <c r="C7" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="67">
+        <v>868183033787966</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="66"/>
+      <c r="I7" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="69"/>
+      <c r="K7" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="72"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="60"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="65">
+        <v>44796</v>
+      </c>
+      <c r="C8" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="67">
+        <v>868183034796511</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="74"/>
+      <c r="L8" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="72"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="60"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="65">
+        <v>44796</v>
+      </c>
+      <c r="C9" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="67">
+        <v>868183034685300</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="72"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="60"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="65">
+        <v>44796</v>
+      </c>
+      <c r="C10" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="67">
+        <v>868183035902647</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="69"/>
+      <c r="K10" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="72"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="60"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="65">
+        <v>44796</v>
+      </c>
+      <c r="C11" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="67">
+        <v>867857039896761</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="75"/>
+      <c r="I11" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="69"/>
+      <c r="K11" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="72"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="60"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="65">
+        <v>44796</v>
+      </c>
+      <c r="C12" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="67">
+        <v>868183038484288</v>
+      </c>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="75"/>
+      <c r="I12" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="72"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="60"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="65">
+        <v>44796</v>
+      </c>
+      <c r="C13" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="67">
+        <v>868183034648217</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" s="72"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="60"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="65">
+        <v>44796</v>
+      </c>
+      <c r="C14" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="67">
+        <v>868183034801857</v>
+      </c>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="76"/>
+      <c r="I14" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="72"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="60"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="65">
+        <v>44796</v>
+      </c>
+      <c r="C15" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="67">
+        <v>867857039908731</v>
+      </c>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="72"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="60"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="65">
+        <v>44796</v>
+      </c>
+      <c r="C16" s="65">
+        <v>44797</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="67">
+        <v>867717030431093</v>
+      </c>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="72"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="60"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="60"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>8</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>3</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>1</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>9</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>13</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>1</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5851,43 +8317,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5932,58 +8398,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -6008,23 +8474,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6050,7 +8516,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6081,7 +8547,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6110,7 +8576,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6139,7 +8605,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6168,7 +8634,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6197,7 +8663,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6226,7 +8692,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6257,7 +8723,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6286,7 +8752,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6315,7 +8781,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6344,7 +8810,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7575,6 +10041,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7586,13 +10059,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanNB.xlsx
@@ -5,34 +5,37 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang8\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang8\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TOP-1" sheetId="45" r:id="rId1"/>
-    <sheet name="TG102LE-4G" sheetId="43" r:id="rId2"/>
-    <sheet name="TG102LE" sheetId="44" r:id="rId3"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
+    <sheet name="TG102E" sheetId="46" r:id="rId1"/>
+    <sheet name="TOP-1" sheetId="45" r:id="rId2"/>
+    <sheet name="TG102LE-4G" sheetId="43" r:id="rId3"/>
+    <sheet name="TG102LE" sheetId="44" r:id="rId4"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TOP-1'!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -326,6 +329,60 @@
   <si>
     <t>Sim lỗi</t>
   </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Thiết bị chốt  GSM chậm</t>
+  </si>
+  <si>
+    <t>Thay MCU, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>NCFW, MCU</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>125.212.203.114,13030</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16464</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa mạch</t>
+  </si>
+  <si>
+    <t>Không khức phục được</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16161</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624</t>
+  </si>
+  <si>
+    <t>Khách báo sai vị trí</t>
+  </si>
+  <si>
+    <t>125.212.203.114/16767</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520</t>
+  </si>
+  <si>
+    <t>125.212.203.114/16060</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
 </sst>
 </file>
 
@@ -527,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -757,6 +814,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -801,6 +864,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,11 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1142,43 +1207,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1223,217 +1288,265 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="77" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="87"/>
+      <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="65">
-        <v>44796</v>
-      </c>
-      <c r="C6" s="65">
-        <v>44797</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="67">
-        <v>868183034662309</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="66" t="s">
+      <c r="B6" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C6" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="38">
+        <v>860906041120863</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="70" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69" t="s">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="69" t="s">
+      <c r="P6" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="71" t="s">
+      <c r="R6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="72"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="77" t="s">
+      <c r="T6" s="78"/>
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="63"/>
+      <c r="W6" s="78"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="71"/>
+      <c r="B7" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C7" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="38">
+        <v>860906041150456</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="72"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="63"/>
+      <c r="W7" s="78"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="71"/>
+      <c r="B8" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C8" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="38">
+        <v>860906041143972</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="72"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="63"/>
+      <c r="W8" s="78"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1457,12 +1570,12 @@
       <c r="Q9" s="69"/>
       <c r="R9" s="71"/>
       <c r="S9" s="72"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="63"/>
+      <c r="W9" s="78"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1486,12 +1599,12 @@
       <c r="Q10" s="69"/>
       <c r="R10" s="71"/>
       <c r="S10" s="72"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="63"/>
+      <c r="W10" s="78"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1515,12 +1628,12 @@
       <c r="Q11" s="69"/>
       <c r="R11" s="71"/>
       <c r="S11" s="72"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="63"/>
+      <c r="W11" s="78"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1544,14 +1657,14 @@
       <c r="Q12" s="69"/>
       <c r="R12" s="71"/>
       <c r="S12" s="72"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="77" t="s">
+      <c r="T12" s="78"/>
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="63"/>
+      <c r="W12" s="78"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1575,12 +1688,12 @@
       <c r="Q13" s="69"/>
       <c r="R13" s="71"/>
       <c r="S13" s="72"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="63"/>
+      <c r="W13" s="78"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1604,12 +1717,12 @@
       <c r="Q14" s="69"/>
       <c r="R14" s="71"/>
       <c r="S14" s="72"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="63"/>
+      <c r="W14" s="78"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1634,11 +1747,11 @@
       <c r="R15" s="71"/>
       <c r="S15" s="72"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="63"/>
+      <c r="W15" s="78"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1663,11 +1776,11 @@
       <c r="R16" s="71"/>
       <c r="S16" s="72"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="63"/>
+      <c r="W16" s="78"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1692,9 +1805,9 @@
       <c r="R17" s="71"/>
       <c r="S17" s="72"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="63"/>
+      <c r="U17" s="78"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="63"/>
+      <c r="W17" s="78"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1746,7 +1859,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="77" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1782,7 +1895,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1927,7 +2040,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="64" t="s">
+      <c r="U25" s="77" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -2251,7 +2364,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2315,7 +2428,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3406,11 +3519,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3442,43 +3555,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3523,498 +3636,501 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="64" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="87"/>
+      <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="65">
         <v>44796</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="65">
         <v>44797</v>
       </c>
-      <c r="D6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="62">
-        <v>861881054164034</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="D6" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="67">
+        <v>868183034662309</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="77" t="s">
+      <c r="R6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="72"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="56"/>
+      <c r="W6" s="63"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="78"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="56"/>
+      <c r="W7" s="63"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="78"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="56"/>
+      <c r="W8" s="63"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="78"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="56"/>
+      <c r="W9" s="63"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="78"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="56"/>
+      <c r="W10" s="63"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="78"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="56"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="77" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="56"/>
+      <c r="W12" s="63"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="56"/>
+      <c r="W13" s="63"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="78"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="56"/>
+      <c r="W14" s="63"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="72"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="56"/>
+      <c r="W15" s="63"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="72"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="56"/>
+      <c r="W16" s="63"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="72"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="56"/>
+      <c r="U17" s="63"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="56"/>
+      <c r="W17" s="63"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -4043,7 +4159,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="57" t="s">
+      <c r="U19" s="64" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -4224,7 +4340,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="57" t="s">
+      <c r="U25" s="64" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -4484,7 +4600,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -4548,7 +4664,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -5703,11 +5819,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showZeros="0" topLeftCell="J40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5739,43 +5855,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5820,105 +5936,3926 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="57" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="59" t="s">
+      <c r="J5" s="87"/>
+      <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
+      <c r="B6" s="54">
+        <v>44796</v>
+      </c>
+      <c r="C6" s="54">
+        <v>44797</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="62">
+        <v>861881054164034</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="56"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C7" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="38">
+        <v>862205051161414</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="56"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C8" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="38">
+        <v>861881051088814</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="56"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C9" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="38">
+        <v>861881051077072</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="55"/>
+      <c r="L9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="56"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C10" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="38">
+        <v>861881051089119</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="55"/>
+      <c r="L10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="56"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C11" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="38">
+        <v>861881051071968</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="56"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C12" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="38">
+        <v>861881051083211</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="56"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C13" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="38">
+        <v>861881051088913</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="56"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C14" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="38">
+        <v>862205051190082</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="56"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C15" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="38">
+        <v>861881051090489</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="56"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C16" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="38">
+        <v>861881051084979</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="56"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C17" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="38">
+        <v>861881051085802</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="56"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C18" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="38">
+        <v>861881051086834</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C19" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="38">
+        <v>862205051188870</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C20" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="38">
+        <v>861881051091438</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C21" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="38">
+        <v>862205051175786</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C22" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="38">
+        <v>861881051084292</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>45</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C23" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="38">
+        <v>862205051188821</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C24" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="38">
+        <v>862205051171157</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C25" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="38">
+        <v>861881051074913</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C26" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="38">
+        <v>861881051088582</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>45</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C27" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="38">
+        <v>861881051090406</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C28" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="38">
+        <v>861881051084185</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C29" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="38">
+        <v>861881051082627</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C30" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="38">
+        <v>862205051180125</v>
+      </c>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C31" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="38">
+        <v>861881051086610</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C32" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="38">
+        <v>861881051080134</v>
+      </c>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C33" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="38">
+        <v>862205051191114</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>1</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C34" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="38">
+        <v>861881051088939</v>
+      </c>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C35" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="38">
+        <v>862205051190629</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>45</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C36" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="38">
+        <v>861881051088954</v>
+      </c>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C37" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="38">
+        <v>861881051075134</v>
+      </c>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>91</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C38" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="38">
+        <v>861881051084631</v>
+      </c>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C39" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="38">
+        <v>862205051194357</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C40" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="38">
+        <v>861881051082379</v>
+      </c>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C41" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="38">
+        <v>861881051088681</v>
+      </c>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C42" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="38">
+        <v>861881051075035</v>
+      </c>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C43" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="38">
+        <v>862205051220194</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C44" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="38">
+        <v>861881051078716</v>
+      </c>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C45" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="38">
+        <v>862205051172239</v>
+      </c>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C46" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="38">
+        <v>862205051172056</v>
+      </c>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C47" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="38">
+        <v>861881051086776</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M47" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C48" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="38">
+        <v>862205051165993</v>
+      </c>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M48" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>12</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C49" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="38">
+        <v>862205051216846</v>
+      </c>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C50" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="38">
+        <v>862205051171322</v>
+      </c>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M50" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C51" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="38">
+        <v>862205051172163</v>
+      </c>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="31"/>
+      <c r="I51" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K51" s="31"/>
+      <c r="L51" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C52" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="38">
+        <v>862205051172262</v>
+      </c>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M52" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C53" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="38">
+        <v>862205051171330</v>
+      </c>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C54" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="38">
+        <v>862205051215764</v>
+      </c>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M54" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C55" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="38">
+        <v>862205051163113</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C56" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="38">
+        <v>861881054164802</v>
+      </c>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M56" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P56" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C57" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="38">
+        <v>862205051181040</v>
+      </c>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P57" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C58" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="38">
+        <v>861881051086750</v>
+      </c>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C59" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="38">
+        <v>861881051077791</v>
+      </c>
+      <c r="F59" s="47"/>
+      <c r="G59" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M59" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C60" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="38">
+        <v>861881051083468</v>
+      </c>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M60" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C61" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="38">
+        <v>861881051078351</v>
+      </c>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" s="32"/>
+      <c r="I61" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M61" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C62" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="94">
+        <v>861881051088665</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H62" s="32"/>
+      <c r="I62" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M62" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C63" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="94">
+        <v>862205051188490</v>
+      </c>
+      <c r="F63" s="32"/>
+      <c r="G63" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H63" s="32"/>
+      <c r="I63" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M63" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C64" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="94">
+        <v>861881051082817</v>
+      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" s="32"/>
+      <c r="I64" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M64" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P64" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C65" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="94">
+        <v>861881051089937</v>
+      </c>
+      <c r="F65" s="32"/>
+      <c r="G65" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H65" s="32"/>
+      <c r="I65" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M65" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P65" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
+      <c r="B5" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="87"/>
+      <c r="K5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
       <c r="B6" s="65">
         <v>44796</v>
       </c>
@@ -5964,7 +9901,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6021,7 +9958,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6078,7 +10015,7 @@
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6137,7 +10074,7 @@
       </c>
       <c r="S9" s="72"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6194,7 +10131,7 @@
       </c>
       <c r="S10" s="72"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6249,7 +10186,7 @@
       </c>
       <c r="S11" s="72"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6306,7 +10243,7 @@
       </c>
       <c r="S12" s="72"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6369,7 +10306,7 @@
       </c>
       <c r="S13" s="72"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6424,7 +10361,7 @@
       </c>
       <c r="S14" s="72"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6481,7 +10418,7 @@
       </c>
       <c r="S15" s="72"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6538,7 +10475,7 @@
       </c>
       <c r="S16" s="72"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6548,23 +10485,49 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="71"/>
+      <c r="B17" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C17" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="38">
+        <v>868183038011537</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="72"/>
       <c r="T17" s="13"/>
       <c r="U17" s="60"/>
@@ -6575,23 +10538,37 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="71"/>
+      <c r="B18" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C18" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="38">
+        <v>868183038026188</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="72"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -6602,23 +10579,51 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="B19" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C19" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="38">
+        <v>868183037815987</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
+      <c r="O19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
       <c r="U19" s="59" t="s">
@@ -6633,23 +10638,49 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
+      <c r="B20" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C20" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="38">
+        <v>868183038043670</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="51" t="s">
+        <v>101</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="K20" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
+      <c r="O20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -6657,7 +10688,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6665,23 +10696,49 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
+      <c r="B21" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C21" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="38">
+        <v>868183037807208</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="51" t="s">
+        <v>101</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="K21" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
+      <c r="O21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
@@ -6689,7 +10746,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6697,23 +10754,49 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="B22" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C22" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="38">
+        <v>868183038515123</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
+      <c r="O22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
@@ -6729,16 +10812,30 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
+      <c r="B23" s="54">
+        <v>44788</v>
+      </c>
+      <c r="C23" s="54">
+        <v>44792</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="38">
+        <v>868183038016486</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="51" t="s">
+        <v>107</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
+      <c r="K23" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
       <c r="N23" s="1"/>
@@ -6998,7 +11095,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -7126,7 +11223,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7190,7 +11287,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7308,7 +11405,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -8255,6 +12352,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8266,20 +12370,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X57"/>
@@ -8317,43 +12414,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8398,58 +12495,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -8474,23 +12571,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8516,7 +12613,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8547,7 +12644,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8576,7 +12673,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8605,7 +12702,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8634,7 +12731,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8663,7 +12760,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8692,7 +12789,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8723,7 +12820,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8752,7 +12849,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8781,7 +12878,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8810,7 +12907,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10041,13 +14138,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10059,6 +14149,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanNB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -820,6 +820,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -864,9 +867,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1207,43 +1207,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1288,58 +1288,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -1364,23 +1364,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
         <v>44788</v>
       </c>
       <c r="C6" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="78"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1444,7 +1444,7 @@
         <v>44788</v>
       </c>
       <c r="C7" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="78"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>44788</v>
       </c>
       <c r="C8" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>45</v>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="78"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="R9" s="71"/>
       <c r="S9" s="72"/>
       <c r="T9" s="78"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1600,7 +1600,7 @@
       <c r="R10" s="71"/>
       <c r="S10" s="72"/>
       <c r="T10" s="78"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="R11" s="71"/>
       <c r="S11" s="72"/>
       <c r="T11" s="78"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="R12" s="71"/>
       <c r="S12" s="72"/>
       <c r="T12" s="78"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1689,7 +1689,7 @@
       <c r="R13" s="71"/>
       <c r="S13" s="72"/>
       <c r="T13" s="78"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="R14" s="71"/>
       <c r="S14" s="72"/>
       <c r="T14" s="78"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="R15" s="71"/>
       <c r="S15" s="72"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="R16" s="71"/>
       <c r="S16" s="72"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3493,13 +3493,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3511,6 +3504,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3522,8 +3522,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3555,43 +3555,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3636,58 +3636,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3712,23 +3712,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3813,7 +3813,7 @@
       <c r="R7" s="71"/>
       <c r="S7" s="72"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="R8" s="71"/>
       <c r="S8" s="72"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="R9" s="71"/>
       <c r="S9" s="72"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="R10" s="71"/>
       <c r="S10" s="72"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3929,7 +3929,7 @@
       <c r="R11" s="71"/>
       <c r="S11" s="72"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="R12" s="71"/>
       <c r="S12" s="72"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3989,7 +3989,7 @@
       <c r="R13" s="71"/>
       <c r="S13" s="72"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="R14" s="71"/>
       <c r="S14" s="72"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="R15" s="71"/>
       <c r="S15" s="72"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4076,7 +4076,7 @@
       <c r="R16" s="71"/>
       <c r="S16" s="72"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5793,6 +5793,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5804,13 +5811,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5822,8 +5822,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5855,43 +5855,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5936,58 +5936,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -6012,23 +6012,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6096,7 +6096,7 @@
         <v>44788</v>
       </c>
       <c r="C7" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>56</v>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>44788</v>
       </c>
       <c r="C8" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>56</v>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>44788</v>
       </c>
       <c r="C9" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>56</v>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>44788</v>
       </c>
       <c r="C10" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>56</v>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>56</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>56</v>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6428,7 +6428,7 @@
         <v>44788</v>
       </c>
       <c r="C13" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>56</v>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>44788</v>
       </c>
       <c r="C14" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>56</v>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>44788</v>
       </c>
       <c r="C15" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>56</v>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>44788</v>
       </c>
       <c r="C16" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>56</v>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>44788</v>
       </c>
       <c r="C17" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>56</v>
@@ -6701,7 +6701,7 @@
         <v>44788</v>
       </c>
       <c r="C18" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>56</v>
@@ -6753,7 +6753,7 @@
         <v>44788</v>
       </c>
       <c r="C19" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>56</v>
@@ -6810,7 +6810,7 @@
         <v>44788</v>
       </c>
       <c r="C20" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>56</v>
@@ -6868,7 +6868,7 @@
         <v>44788</v>
       </c>
       <c r="C21" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>56</v>
@@ -6926,7 +6926,7 @@
         <v>44788</v>
       </c>
       <c r="C22" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>56</v>
@@ -6984,7 +6984,7 @@
         <v>44788</v>
       </c>
       <c r="C23" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>56</v>
@@ -7037,7 +7037,7 @@
         <v>44788</v>
       </c>
       <c r="C24" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>56</v>
@@ -7090,7 +7090,7 @@
         <v>44788</v>
       </c>
       <c r="C25" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>56</v>
@@ -7147,7 +7147,7 @@
         <v>44788</v>
       </c>
       <c r="C26" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>56</v>
@@ -7205,7 +7205,7 @@
         <v>44788</v>
       </c>
       <c r="C27" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>56</v>
@@ -7263,7 +7263,7 @@
         <v>44788</v>
       </c>
       <c r="C28" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>56</v>
@@ -7321,7 +7321,7 @@
         <v>44788</v>
       </c>
       <c r="C29" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>56</v>
@@ -7379,7 +7379,7 @@
         <v>44788</v>
       </c>
       <c r="C30" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>56</v>
@@ -7437,7 +7437,7 @@
         <v>44788</v>
       </c>
       <c r="C31" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>56</v>
@@ -7495,7 +7495,7 @@
         <v>44788</v>
       </c>
       <c r="C32" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>56</v>
@@ -7553,7 +7553,7 @@
         <v>44788</v>
       </c>
       <c r="C33" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>56</v>
@@ -7611,7 +7611,7 @@
         <v>44788</v>
       </c>
       <c r="C34" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>56</v>
@@ -7669,7 +7669,7 @@
         <v>44788</v>
       </c>
       <c r="C35" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>56</v>
@@ -7727,7 +7727,7 @@
         <v>44788</v>
       </c>
       <c r="C36" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>56</v>
@@ -7785,7 +7785,7 @@
         <v>44788</v>
       </c>
       <c r="C37" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>56</v>
@@ -7843,7 +7843,7 @@
         <v>44788</v>
       </c>
       <c r="C38" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>56</v>
@@ -7896,7 +7896,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>56</v>
@@ -7949,7 +7949,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>56</v>
@@ -8007,7 +8007,7 @@
         <v>44788</v>
       </c>
       <c r="C41" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>56</v>
@@ -8065,7 +8065,7 @@
         <v>44788</v>
       </c>
       <c r="C42" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>56</v>
@@ -8118,7 +8118,7 @@
         <v>44788</v>
       </c>
       <c r="C43" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>56</v>
@@ -8171,7 +8171,7 @@
         <v>44788</v>
       </c>
       <c r="C44" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>56</v>
@@ -8233,7 +8233,7 @@
         <v>44788</v>
       </c>
       <c r="C45" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>56</v>
@@ -8298,7 +8298,7 @@
         <v>44788</v>
       </c>
       <c r="C46" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>56</v>
@@ -8363,7 +8363,7 @@
         <v>44788</v>
       </c>
       <c r="C47" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>56</v>
@@ -8428,7 +8428,7 @@
         <v>44788</v>
       </c>
       <c r="C48" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>56</v>
@@ -8496,7 +8496,7 @@
         <v>44788</v>
       </c>
       <c r="C49" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>56</v>
@@ -8550,7 +8550,7 @@
         <v>44788</v>
       </c>
       <c r="C50" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>56</v>
@@ -8604,7 +8604,7 @@
         <v>44788</v>
       </c>
       <c r="C51" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>56</v>
@@ -8658,7 +8658,7 @@
         <v>44788</v>
       </c>
       <c r="C52" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>56</v>
@@ -8712,7 +8712,7 @@
         <v>44788</v>
       </c>
       <c r="C53" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>56</v>
@@ -8766,7 +8766,7 @@
         <v>44788</v>
       </c>
       <c r="C54" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>56</v>
@@ -8820,7 +8820,7 @@
         <v>44788</v>
       </c>
       <c r="C55" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>56</v>
@@ -8874,7 +8874,7 @@
         <v>44788</v>
       </c>
       <c r="C56" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>56</v>
@@ -8926,7 +8926,7 @@
         <v>44788</v>
       </c>
       <c r="C57" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>56</v>
@@ -8978,7 +8978,7 @@
         <v>44788</v>
       </c>
       <c r="C58" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>56</v>
@@ -9027,7 +9027,7 @@
         <v>44788</v>
       </c>
       <c r="C59" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>56</v>
@@ -9076,7 +9076,7 @@
         <v>44788</v>
       </c>
       <c r="C60" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>56</v>
@@ -9125,7 +9125,7 @@
         <v>44788</v>
       </c>
       <c r="C61" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>56</v>
@@ -9174,12 +9174,12 @@
         <v>44788</v>
       </c>
       <c r="C62" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="94">
+      <c r="E62" s="79">
         <v>861881051088665</v>
       </c>
       <c r="F62" s="32"/>
@@ -9223,12 +9223,12 @@
         <v>44788</v>
       </c>
       <c r="C63" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D63" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="94">
+      <c r="E63" s="79">
         <v>862205051188490</v>
       </c>
       <c r="F63" s="32"/>
@@ -9272,12 +9272,12 @@
         <v>44788</v>
       </c>
       <c r="C64" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D64" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E64" s="94">
+      <c r="E64" s="79">
         <v>861881051082817</v>
       </c>
       <c r="F64" s="32"/>
@@ -9321,12 +9321,12 @@
         <v>44788</v>
       </c>
       <c r="C65" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D65" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E65" s="94">
+      <c r="E65" s="79">
         <v>861881051089937</v>
       </c>
       <c r="F65" s="32"/>
@@ -9614,13 +9614,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9632,6 +9625,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9644,7 +9644,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="C17" sqref="C17:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9676,43 +9676,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -9757,58 +9757,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
@@ -9833,23 +9833,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="S9" s="72"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="S10" s="72"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="S11" s="72"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="S12" s="72"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="S13" s="72"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="S14" s="72"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10418,7 +10418,7 @@
       </c>
       <c r="S15" s="72"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="S16" s="72"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>44788</v>
       </c>
       <c r="C17" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>44</v>
@@ -10542,7 +10542,7 @@
         <v>44788</v>
       </c>
       <c r="C18" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>44</v>
@@ -10563,12 +10563,22 @@
         <v>74</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="M18" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
+      <c r="O18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="72"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -10583,7 +10593,7 @@
         <v>44788</v>
       </c>
       <c r="C19" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>44</v>
@@ -10642,7 +10652,7 @@
         <v>44788</v>
       </c>
       <c r="C20" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>44</v>
@@ -10688,7 +10698,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -10700,7 +10710,7 @@
         <v>44788</v>
       </c>
       <c r="C21" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>44</v>
@@ -10758,7 +10768,7 @@
         <v>44788</v>
       </c>
       <c r="C22" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>44</v>
@@ -10816,7 +10826,7 @@
         <v>44788</v>
       </c>
       <c r="C23" s="54">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>44</v>
@@ -10837,12 +10847,22 @@
         <v>74</v>
       </c>
       <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
+      <c r="M23" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
+      <c r="O23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -11223,7 +11243,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11287,7 +11307,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12352,13 +12372,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12370,6 +12383,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12414,43 +12434,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12495,58 +12515,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -12571,23 +12591,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12613,7 +12633,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12644,7 +12664,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12673,7 +12693,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12702,7 +12722,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12731,7 +12751,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12760,7 +12780,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12789,7 +12809,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12820,7 +12840,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12849,7 +12869,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12878,7 +12898,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12907,7 +12927,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14138,6 +14158,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14149,13 +14176,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
